--- a/output/Media_analise/reactions/@nitrogensaida.xlsx
+++ b/output/Media_analise/reactions/@nitrogensaida.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\Não anotado\@Saídas\Media_analise\reactions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\V. cholerae metabolism\output\Media_analise\reactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67C0476-FA02-4B92-9B8F-02DF25915059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFE3CD8-4425-4BC1-9941-FC71484C5E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -935,12 +938,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -971,7 +980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1008,6 +1017,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1349,11 +1362,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FS40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G40" sqref="A1:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="9.140625" style="35"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:175" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1371,7 +1387,7 @@
       <c r="E1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="34" t="s">
         <v>290</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1900,7 +1916,7 @@
         <f>LARGE(H2:MI2,1)</f>
         <v>-2.3422200000000002</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="35">
         <f>AVERAGE(H2:MI2)</f>
         <v>-2.3422199999999984</v>
       </c>
@@ -2431,7 +2447,7 @@
         <f t="shared" ref="E3:E40" si="1">LARGE(H3:MI3,1)</f>
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="35">
         <f t="shared" ref="F3:F40" si="2">AVERAGE(H3:MI3)</f>
         <v>0</v>
       </c>
@@ -2962,7 +2978,7 @@
         <f t="shared" si="1"/>
         <v>-7.5222199999999999</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="35">
         <f t="shared" si="2"/>
         <v>-7.5222199999999937</v>
       </c>
@@ -3493,7 +3509,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4024,7 +4040,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4555,7 +4571,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5086,7 +5102,7 @@
         <f t="shared" si="1"/>
         <v>6.5328200000000001</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="35">
         <f t="shared" si="2"/>
         <v>6.5328200000000045</v>
       </c>
@@ -5617,7 +5633,7 @@
         <f t="shared" si="1"/>
         <v>-13.5075</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="35">
         <f t="shared" si="2"/>
         <v>-13.507500000000014</v>
       </c>
@@ -6148,7 +6164,7 @@
         <f t="shared" si="1"/>
         <v>0.53396999999999994</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="35">
         <f t="shared" si="2"/>
         <v>0.53396999999999895</v>
       </c>
@@ -6679,7 +6695,7 @@
         <f t="shared" si="1"/>
         <v>3.75183</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="35">
         <f t="shared" si="2"/>
         <v>3.7518300000000018</v>
       </c>
@@ -7210,7 +7226,7 @@
         <f t="shared" si="1"/>
         <v>3.75183</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="35">
         <f t="shared" si="2"/>
         <v>3.7518300000000018</v>
       </c>
@@ -7741,7 +7757,7 @@
         <f t="shared" si="1"/>
         <v>-0.64175199999999999</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="35">
         <f t="shared" si="2"/>
         <v>-0.64175199999999877</v>
       </c>
@@ -8272,7 +8288,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="35">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -8803,7 +8819,7 @@
         <f t="shared" si="1"/>
         <v>6.5531899999999998</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="35">
         <f t="shared" si="2"/>
         <v>6.5531899999999856</v>
       </c>
@@ -9334,7 +9350,7 @@
         <f t="shared" si="1"/>
         <v>1.6119600000000001E-2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="35">
         <f t="shared" si="2"/>
         <v>1.6119599999999984E-2</v>
       </c>
@@ -9865,7 +9881,7 @@
         <f t="shared" si="1"/>
         <v>0.53396999999999994</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="35">
         <f t="shared" si="2"/>
         <v>0.53396999999999895</v>
       </c>
@@ -10396,7 +10412,7 @@
         <f t="shared" si="1"/>
         <v>0.55008999999999997</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="35">
         <f t="shared" si="2"/>
         <v>0.55008999999999963</v>
       </c>
@@ -10927,7 +10943,7 @@
         <f t="shared" si="1"/>
         <v>-0.53396999999999994</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="35">
         <f t="shared" si="2"/>
         <v>-0.53396999999999895</v>
       </c>
@@ -11458,7 +11474,7 @@
         <f t="shared" si="1"/>
         <v>-2.8710200000000001</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="35">
         <f t="shared" si="2"/>
         <v>-2.8710199999999948</v>
       </c>
@@ -11989,7 +12005,7 @@
         <f t="shared" si="1"/>
         <v>-0.53396999999999994</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="35">
         <f t="shared" si="2"/>
         <v>-0.53396999999999895</v>
       </c>
@@ -12520,7 +12536,7 @@
         <f t="shared" si="1"/>
         <v>0.55008999999999997</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="35">
         <f t="shared" si="2"/>
         <v>0.55008999999999963</v>
       </c>
@@ -13051,7 +13067,7 @@
         <f t="shared" si="1"/>
         <v>4.3279699999999997</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="35">
         <f t="shared" si="2"/>
         <v>4.3279699999999952</v>
       </c>
@@ -13582,7 +13598,7 @@
         <f t="shared" si="1"/>
         <v>-10.3141</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="35">
         <f t="shared" si="2"/>
         <v>-10.314100000000021</v>
       </c>
@@ -14113,7 +14129,7 @@
         <f t="shared" si="1"/>
         <v>0.64175199999999999</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="35">
         <f t="shared" si="2"/>
         <v>0.64175199999999877</v>
       </c>
@@ -14644,7 +14660,7 @@
         <f t="shared" si="1"/>
         <v>-1.2444200000000001</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="35">
         <f t="shared" si="2"/>
         <v>-1.2444200000000016</v>
       </c>
@@ -15175,7 +15191,7 @@
         <f t="shared" si="1"/>
         <v>-3.75183</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="35">
         <f t="shared" si="2"/>
         <v>-3.7518300000000018</v>
       </c>
@@ -15706,7 +15722,7 @@
         <f t="shared" si="1"/>
         <v>1.6119600000000001E-2</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="35">
         <f t="shared" si="2"/>
         <v>1.6119599999999984E-2</v>
       </c>
@@ -16237,7 +16253,7 @@
         <f t="shared" si="1"/>
         <v>13.0656</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="35">
         <f t="shared" si="2"/>
         <v>13.065600000000003</v>
       </c>
@@ -16768,7 +16784,7 @@
         <f t="shared" si="1"/>
         <v>0.64175199999999999</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="35">
         <f t="shared" si="2"/>
         <v>0.64175199999999877</v>
       </c>
@@ -17299,7 +17315,7 @@
         <f t="shared" si="1"/>
         <v>0.460094</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="35">
         <f t="shared" si="2"/>
         <v>0.46009400000000023</v>
       </c>
@@ -17830,7 +17846,7 @@
         <f t="shared" si="1"/>
         <v>20.502300000000002</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="35">
         <f t="shared" si="2"/>
         <v>20.502300000000041</v>
       </c>
@@ -18361,7 +18377,7 @@
         <f t="shared" si="1"/>
         <v>10.3141</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="35">
         <f t="shared" si="2"/>
         <v>10.314100000000021</v>
       </c>
@@ -18892,7 +18908,7 @@
         <f t="shared" si="1"/>
         <v>-6.5531899999999998</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="35">
         <f t="shared" si="2"/>
         <v>-6.5531899999999856</v>
       </c>
@@ -19423,7 +19439,7 @@
         <f t="shared" si="1"/>
         <v>-2.8710200000000001</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="35">
         <f t="shared" si="2"/>
         <v>-2.8710199999999948</v>
       </c>
@@ -19954,7 +19970,7 @@
         <f t="shared" si="1"/>
         <v>-0.460094</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="35">
         <f t="shared" si="2"/>
         <v>-0.46009400000000023</v>
       </c>
@@ -20485,7 +20501,7 @@
         <f t="shared" si="1"/>
         <v>-0.53396999999999994</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="35">
         <f t="shared" si="2"/>
         <v>-0.53396999999999895</v>
       </c>
@@ -21016,7 +21032,7 @@
         <f t="shared" si="1"/>
         <v>2.5074100000000001</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="35">
         <f t="shared" si="2"/>
         <v>2.5074099999999953</v>
       </c>
@@ -21541,7 +21557,7 @@
         <f t="shared" si="1"/>
         <v>0.59482000000000002</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="35">
         <f t="shared" si="2"/>
         <v>0.59481999999999913</v>
       </c>
@@ -22066,7 +22082,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -22588,11 +22604,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092406F3-F5B8-4C31-9235-53ABA32D7F5C}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="9.140625" style="35"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -22610,7 +22629,7 @@
       <c r="E1" t="s">
         <v>289</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="35" t="s">
         <v>290</v>
       </c>
       <c r="G1" t="s">
@@ -22619,36 +22638,24 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D2">
-        <v>-2.3422200000000002</v>
+        <v>0.59482000000000002</v>
       </c>
       <c r="E2">
-        <v>-2.3422200000000002</v>
-      </c>
-      <c r="F2">
-        <v>-2.3422199999999984</v>
+        <v>0.59482000000000002</v>
+      </c>
+      <c r="F2" s="35">
+        <v>0.59481999999999913</v>
       </c>
       <c r="G2">
-        <v>-2.3422200000000002</v>
+        <v>0.59482000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -22656,7 +22663,7 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="35">
         <v>0</v>
       </c>
       <c r="G3">
@@ -22665,186 +22672,186 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>216</v>
+        <v>280</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="D4">
-        <v>-7.5222199999999999</v>
+        <v>-0.460094</v>
       </c>
       <c r="E4">
-        <v>-7.5222199999999999</v>
-      </c>
-      <c r="F4">
-        <v>-7.5222199999999937</v>
+        <v>-0.460094</v>
+      </c>
+      <c r="F4" s="35">
+        <v>-0.46009400000000023</v>
       </c>
       <c r="G4">
-        <v>-7.5222199999999999</v>
+        <v>-0.460094</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>218</v>
+        <v>282</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-0.53396999999999994</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>-0.53396999999999994</v>
+      </c>
+      <c r="F5" s="35">
+        <v>-0.53396999999999895</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-0.53396999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.460094</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>0.460094</v>
+      </c>
+      <c r="F6" s="35">
+        <v>0.46009400000000023</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.460094</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-1.2444200000000001</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>-1.2444200000000001</v>
+      </c>
+      <c r="F7" s="35">
+        <v>-1.2444200000000016</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-1.2444200000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D8">
-        <v>6.5328200000000001</v>
+        <v>-0.64175199999999999</v>
       </c>
       <c r="E8">
-        <v>6.5328200000000001</v>
-      </c>
-      <c r="F8">
-        <v>6.5328200000000045</v>
+        <v>-0.64175199999999999</v>
+      </c>
+      <c r="F8" s="35">
+        <v>-0.64175199999999877</v>
       </c>
       <c r="G8">
-        <v>6.5328200000000001</v>
+        <v>-0.64175199999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D9">
-        <v>-13.5075</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-13.5075</v>
-      </c>
-      <c r="F9">
-        <v>-13.507500000000014</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="35">
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>-13.5075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D10">
-        <v>0.53396999999999994</v>
+        <v>6.5531899999999998</v>
       </c>
       <c r="E10">
-        <v>0.53396999999999994</v>
-      </c>
-      <c r="F10">
-        <v>0.53396999999999895</v>
+        <v>6.5531899999999998</v>
+      </c>
+      <c r="F10" s="35">
+        <v>6.5531899999999856</v>
       </c>
       <c r="G10">
-        <v>0.53396999999999994</v>
+        <v>6.5531899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="D11">
-        <v>3.75183</v>
+        <v>0.64175199999999999</v>
       </c>
       <c r="E11">
-        <v>3.75183</v>
-      </c>
-      <c r="F11">
-        <v>3.7518300000000018</v>
+        <v>0.64175199999999999</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0.64175199999999877</v>
       </c>
       <c r="G11">
-        <v>3.75183</v>
+        <v>0.64175199999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -22863,7 +22870,7 @@
       <c r="E12">
         <v>3.75183</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="35">
         <v>3.7518300000000018</v>
       </c>
       <c r="G12">
@@ -22872,514 +22879,654 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D13">
-        <v>-0.64175199999999999</v>
+        <v>0.53396999999999994</v>
       </c>
       <c r="E13">
-        <v>-0.64175199999999999</v>
-      </c>
-      <c r="F13">
-        <v>-0.64175199999999877</v>
+        <v>0.53396999999999994</v>
+      </c>
+      <c r="F13" s="35">
+        <v>0.53396999999999895</v>
       </c>
       <c r="G13">
-        <v>-0.64175199999999999</v>
+        <v>0.53396999999999994</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>4.3279699999999997</v>
       </c>
       <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
+        <v>4.3279699999999997</v>
+      </c>
+      <c r="F14" s="35">
+        <v>4.3279699999999952</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>4.3279699999999997</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="D15">
-        <v>6.5531899999999998</v>
+        <v>0.55008999999999997</v>
       </c>
       <c r="E15">
-        <v>6.5531899999999998</v>
-      </c>
-      <c r="F15">
-        <v>6.5531899999999856</v>
+        <v>0.55008999999999997</v>
+      </c>
+      <c r="F15" s="35">
+        <v>0.55008999999999963</v>
       </c>
       <c r="G15">
-        <v>6.5531899999999998</v>
+        <v>0.55008999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D16">
-        <v>1.6119600000000001E-2</v>
+        <v>-3.75183</v>
       </c>
       <c r="E16">
-        <v>1.6119600000000001E-2</v>
-      </c>
-      <c r="F16">
-        <v>1.6119599999999984E-2</v>
+        <v>-3.75183</v>
+      </c>
+      <c r="F16" s="35">
+        <v>-3.7518300000000018</v>
       </c>
       <c r="G16">
-        <v>1.6119600000000001E-2</v>
+        <v>-3.75183</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D17">
-        <v>0.53396999999999994</v>
+        <v>-0.53396999999999994</v>
       </c>
       <c r="E17">
-        <v>0.53396999999999994</v>
-      </c>
-      <c r="F17">
-        <v>0.53396999999999895</v>
+        <v>-0.53396999999999994</v>
+      </c>
+      <c r="F17" s="35">
+        <v>-0.53396999999999895</v>
       </c>
       <c r="G17">
-        <v>0.53396999999999994</v>
+        <v>-0.53396999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="D18">
-        <v>0.55008999999999997</v>
+        <v>10.3141</v>
       </c>
       <c r="E18">
-        <v>0.55008999999999997</v>
-      </c>
-      <c r="F18">
-        <v>0.55008999999999963</v>
+        <v>10.3141</v>
+      </c>
+      <c r="F18" s="35">
+        <v>10.314100000000021</v>
       </c>
       <c r="G18">
-        <v>0.55008999999999997</v>
+        <v>10.3141</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D19">
-        <v>-0.53396999999999994</v>
+        <v>3.75183</v>
       </c>
       <c r="E19">
-        <v>-0.53396999999999994</v>
-      </c>
-      <c r="F19">
-        <v>-0.53396999999999895</v>
+        <v>3.75183</v>
+      </c>
+      <c r="F19" s="35">
+        <v>3.7518300000000018</v>
       </c>
       <c r="G19">
-        <v>-0.53396999999999994</v>
+        <v>3.75183</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D20">
-        <v>-2.8710200000000001</v>
+        <v>0.64175199999999999</v>
       </c>
       <c r="E20">
-        <v>-2.8710200000000001</v>
-      </c>
-      <c r="F20">
-        <v>-2.8710199999999948</v>
+        <v>0.64175199999999999</v>
+      </c>
+      <c r="F20" s="35">
+        <v>0.64175199999999877</v>
       </c>
       <c r="G20">
-        <v>-2.8710200000000001</v>
+        <v>0.64175199999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D21">
-        <v>-0.53396999999999994</v>
+        <v>-10.3141</v>
       </c>
       <c r="E21">
-        <v>-0.53396999999999994</v>
-      </c>
-      <c r="F21">
-        <v>-0.53396999999999895</v>
+        <v>-10.3141</v>
+      </c>
+      <c r="F21" s="35">
+        <v>-10.314100000000021</v>
       </c>
       <c r="G21">
-        <v>-0.53396999999999994</v>
+        <v>-10.3141</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="D22">
-        <v>0.55008999999999997</v>
+        <v>-6.5531899999999998</v>
       </c>
       <c r="E22">
-        <v>0.55008999999999997</v>
-      </c>
-      <c r="F22">
-        <v>0.55008999999999963</v>
+        <v>-6.5531899999999998</v>
+      </c>
+      <c r="F22" s="35">
+        <v>-6.5531899999999856</v>
       </c>
       <c r="G22">
-        <v>0.55008999999999997</v>
+        <v>-6.5531899999999998</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="D23">
-        <v>4.3279699999999997</v>
+        <v>0.53396999999999994</v>
       </c>
       <c r="E23">
-        <v>4.3279699999999997</v>
-      </c>
-      <c r="F23">
-        <v>4.3279699999999952</v>
+        <v>0.53396999999999994</v>
+      </c>
+      <c r="F23" s="35">
+        <v>0.53396999999999895</v>
       </c>
       <c r="G23">
-        <v>4.3279699999999997</v>
+        <v>0.53396999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D24">
-        <v>-10.3141</v>
+        <v>0.55008999999999997</v>
       </c>
       <c r="E24">
-        <v>-10.3141</v>
-      </c>
-      <c r="F24">
-        <v>-10.314100000000021</v>
+        <v>0.55008999999999997</v>
+      </c>
+      <c r="F24" s="35">
+        <v>0.55008999999999963</v>
       </c>
       <c r="G24">
-        <v>-10.3141</v>
+        <v>0.55008999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="D25">
-        <v>0.64175199999999999</v>
+        <v>1.6119600000000001E-2</v>
       </c>
       <c r="E25">
-        <v>0.64175199999999999</v>
-      </c>
-      <c r="F25">
-        <v>0.64175199999999877</v>
+        <v>1.6119600000000001E-2</v>
+      </c>
+      <c r="F25" s="35">
+        <v>1.6119599999999984E-2</v>
       </c>
       <c r="G25">
-        <v>0.64175199999999999</v>
+        <v>1.6119600000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D26">
-        <v>-1.2444200000000001</v>
+        <v>1.6119600000000001E-2</v>
       </c>
       <c r="E26">
-        <v>-1.2444200000000001</v>
-      </c>
-      <c r="F26">
-        <v>-1.2444200000000016</v>
+        <v>1.6119600000000001E-2</v>
+      </c>
+      <c r="F26" s="35">
+        <v>1.6119599999999984E-2</v>
       </c>
       <c r="G26">
-        <v>-1.2444200000000001</v>
+        <v>1.6119600000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="D27">
-        <v>-3.75183</v>
+        <v>-7.5222199999999999</v>
       </c>
       <c r="E27">
-        <v>-3.75183</v>
-      </c>
-      <c r="F27">
-        <v>-3.7518300000000018</v>
+        <v>-7.5222199999999999</v>
+      </c>
+      <c r="F27" s="35">
+        <v>-7.5222199999999937</v>
       </c>
       <c r="G27">
-        <v>-3.75183</v>
+        <v>-7.5222199999999999</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="D28">
-        <v>-3.75183</v>
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28" s="35">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="D29">
-        <v>-3.75183</v>
+        <v>2.5074100000000001</v>
+      </c>
+      <c r="E29">
+        <v>2.5074100000000001</v>
+      </c>
+      <c r="F29" s="35">
+        <v>2.5074099999999953</v>
+      </c>
+      <c r="G29">
+        <v>2.5074100000000001</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="D30">
-        <v>-3.75183</v>
+        <v>-13.5075</v>
+      </c>
+      <c r="E30">
+        <v>-13.5075</v>
+      </c>
+      <c r="F30" s="35">
+        <v>-13.507500000000014</v>
+      </c>
+      <c r="G30">
+        <v>-13.5075</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="D31">
-        <v>-3.75183</v>
+        <v>-2.3422200000000002</v>
+      </c>
+      <c r="E31">
+        <v>-2.3422200000000002</v>
+      </c>
+      <c r="F31" s="35">
+        <v>-2.3422199999999984</v>
+      </c>
+      <c r="G31">
+        <v>-2.3422200000000002</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32">
+        <v>6.5328200000000001</v>
+      </c>
+      <c r="E32">
+        <v>6.5328200000000001</v>
+      </c>
+      <c r="F32" s="35">
+        <v>6.5328200000000045</v>
+      </c>
+      <c r="G32">
+        <v>6.5328200000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33">
+        <v>-0.53396999999999994</v>
+      </c>
+      <c r="E33">
+        <v>-0.53396999999999994</v>
+      </c>
+      <c r="F33" s="35">
+        <v>-0.53396999999999895</v>
+      </c>
+      <c r="G33">
+        <v>-0.53396999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D34">
+        <v>-2.8710200000000001</v>
+      </c>
+      <c r="E34">
+        <v>-2.8710200000000001</v>
+      </c>
+      <c r="F34" s="35">
+        <v>-2.8710199999999948</v>
+      </c>
+      <c r="G34">
+        <v>-2.8710200000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35">
+        <v>-2.8710200000000001</v>
+      </c>
+      <c r="E35">
+        <v>-2.8710200000000001</v>
+      </c>
+      <c r="F35" s="35">
+        <v>-2.8710199999999948</v>
+      </c>
+      <c r="G35">
+        <v>-2.8710200000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>199</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B36" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C36" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="D32">
-        <v>-3.75183</v>
+      <c r="D36">
+        <v>20.502300000000002</v>
+      </c>
+      <c r="E36">
+        <v>20.502300000000002</v>
+      </c>
+      <c r="F36" s="35">
+        <v>20.502300000000041</v>
+      </c>
+      <c r="G36">
+        <v>20.502300000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>200</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="D33">
-        <v>-3.75183</v>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="35">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>201</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="D34">
-        <v>-3.75183</v>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" s="35">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>202</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="D35">
-        <v>-3.75183</v>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39">
+        <v>13.0656</v>
+      </c>
+      <c r="E39">
+        <v>13.0656</v>
+      </c>
+      <c r="F39" s="35">
+        <v>13.065600000000003</v>
+      </c>
+      <c r="G39">
+        <v>13.0656</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="D36">
-        <v>-3.75183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>204</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="D37">
-        <v>-3.75183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>205</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="D38">
-        <v>-3.75183</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>207</v>
+        <v>174</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" s="35">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{092406F3-F5B8-4C31-9235-53ABA32D7F5C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G40">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>